--- a/Jogos_do_Dia/2023-12-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,7 +657,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Slovenia PrvaLiga</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -665,138 +665,138 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>Rogaška</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>El Gounah</t>
+          <t>Aluminij</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.59</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.09</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.5</v>
+        <v>0.88</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.98</v>
+        <v>1.46</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.67</v>
+        <v>1.28</v>
       </c>
       <c r="AD2" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK2" t="n">
         <v>2.65</v>
       </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Slovenia PrvaLiga</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -808,134 +808,134 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Celje</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD3" t="n">
         <v>3.55</v>
       </c>
-      <c r="H3" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>3.19</v>
-      </c>
       <c r="AE3" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.7</v>
+        <v>1.32</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.16</v>
+        <v>3.1</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.73</v>
+        <v>2.21</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -943,93 +943,93 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>El Gounah</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>1.85</v>
+        <v>2.57</v>
       </c>
       <c r="K4" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>2.76</v>
       </c>
       <c r="M4" t="n">
         <v>1.53</v>
       </c>
       <c r="N4" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>7.25</v>
+        <v>2.64</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="R4" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="S4" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="T4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
         <v>1.5</v>
       </c>
-      <c r="U4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1.44</v>
-      </c>
       <c r="AB4" t="n">
-        <v>1.58</v>
+        <v>0.98</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1090,130 +1090,130 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.82</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="I5" t="n">
-        <v>2.89</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="K5" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="S5" t="n">
-        <v>2.23</v>
+        <v>2.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="U5" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="X5" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.52</v>
+        <v>1.17</v>
       </c>
       <c r="AC5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG5" t="n">
         <v>1.81</v>
       </c>
-      <c r="AD5" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1221,131 +1221,409 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>18</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Arda</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>14:00:00</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>9</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Pyramids FC</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Baladiyyat Al Mehalla</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="G8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>14</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Z8" t="n">
         <v>2.5</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA8" t="n">
         <v>1.67</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB8" t="n">
         <v>1.79</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC8" t="n">
         <v>1.36</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD8" t="n">
         <v>3.15</v>
       </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="n">
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-12-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ8"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,7 +657,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Slovenia PrvaLiga</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -665,138 +665,138 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Rogaška</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Aluminij</t>
+          <t>El Gounah</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="I2" t="n">
-        <v>3.59</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="M2" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="N2" t="n">
-        <v>3.09</v>
+        <v>2.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>9.699999999999999</v>
+        <v>2.64</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.24</v>
+        <v>1.49</v>
       </c>
       <c r="R2" t="n">
-        <v>3.48</v>
+        <v>2.64</v>
       </c>
       <c r="S2" t="n">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>2.09</v>
+        <v>1.73</v>
       </c>
       <c r="W2" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="X2" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.88</v>
+        <v>1.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.46</v>
+        <v>0.98</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.28</v>
+        <v>1.67</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.74</v>
+        <v>2.65</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.21</v>
+        <v>2.36</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AI2" t="n">
-        <v>3.6</v>
+        <v>2.93</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.65</v>
+        <v>2.2</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.63</v>
+        <v>2.07</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.24</v>
+        <v>1.76</v>
       </c>
       <c r="AN2" t="n">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.79</v>
+        <v>1.39</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.54</v>
+        <v>3.74</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.49</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Slovenia PrvaLiga</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -808,134 +808,134 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Celje</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.19</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.37</v>
+        <v>1.91</v>
       </c>
       <c r="I3" t="n">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.57</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="N3" t="n">
-        <v>3.17</v>
+        <v>2.38</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>9.9</v>
+        <v>2.58</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="R3" t="n">
-        <v>3.56</v>
+        <v>2.58</v>
       </c>
       <c r="S3" t="n">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="T3" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>1.14</v>
+        <v>1.49</v>
       </c>
       <c r="X3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>1.22</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>1.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -943,102 +943,102 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>El Gounah</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.57</v>
+        <v>1.8</v>
       </c>
       <c r="K4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.76</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.53</v>
       </c>
       <c r="N4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="P4" t="n">
-        <v>2.64</v>
+        <v>7.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="R4" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="S4" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="T4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z4" t="n">
         <v>2</v>
       </c>
-      <c r="V4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
       <c r="AA4" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.98</v>
+        <v>1.58</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1090,25 +1090,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="K5" t="n">
         <v>3</v>
@@ -1117,103 +1117,103 @@
         <v>2.45</v>
       </c>
       <c r="M5" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="N5" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>2.58</v>
+        <v>3.05</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="R5" t="n">
-        <v>2.58</v>
+        <v>3.05</v>
       </c>
       <c r="S5" t="n">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="T5" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.75</v>
+        <v>2.25</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.17</v>
+        <v>1.52</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="AD5" t="n">
-        <v>3.19</v>
+        <v>3.33</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.29</v>
+        <v>2.08</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="AI5" t="n">
-        <v>3.04</v>
+        <v>3.65</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.21</v>
+        <v>2.55</v>
       </c>
       <c r="AL5" t="n">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.76</v>
+        <v>2.01</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.6</v>
+        <v>2.22</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.41</v>
+        <v>1.65</v>
       </c>
       <c r="AP5" t="n">
-        <v>3.64</v>
+        <v>2.98</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1221,410 +1221,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Baladiyyat Al Mehalla</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>1.81</v>
+        <v>1.22</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="L6" t="n">
-        <v>4.63</v>
+        <v>13</v>
       </c>
       <c r="M6" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="N6" t="n">
-        <v>2.38</v>
+        <v>2.67</v>
       </c>
       <c r="O6" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>7.25</v>
+        <v>2.94</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="R6" t="n">
-        <v>2.6</v>
+        <v>2.94</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="T6" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Z6" t="n">
         <v>2.2</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AA6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>1.62</v>
       </c>
-      <c r="W6" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Egypt Egyptian Premier League</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45274</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>14:00:00</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>9</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Al Masry</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Zamalek</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Egypt Egyptian Premier League</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>45274</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>14:00:00</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>9</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Pyramids FC</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Baladiyyat Al Mehalla</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>13</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>14</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>
